--- a/reports/undefined.xlsx
+++ b/reports/undefined.xlsx
@@ -4,55 +4,56 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="14">
+  <si>
+    <t>Performance Report</t>
+  </si>
+  <si>
+    <t>IT Futurz</t>
+  </si>
+  <si>
+    <t>Dept ID</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Parameters</t>
+    <t>Memo Type</t>
   </si>
   <si>
-    <t>Day</t>
+    <t>Start and End Date</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Memo Accepted</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Memo Disapproved</t>
   </si>
   <si>
-    <t xml:space="preserve">Divya  </t>
+    <t xml:space="preserve">krunal  </t>
   </si>
   <si>
-    <t>14/07/2020</t>
+    <t>in</t>
   </si>
   <si>
-    <t>15/07/2020</t>
+    <t>01/08/2020 - 31/08/2020</t>
   </si>
   <si>
-    <t>16/07/2020</t>
+    <t>out</t>
   </si>
   <si>
-    <t>17/07/2020</t>
-  </si>
-  <si>
-    <t>18/07/2020</t>
-  </si>
-  <si>
-    <t>20/07/2020</t>
-  </si>
-  <si>
-    <t>21/07/2020</t>
-  </si>
-  <si>
-    <t>27/07/2020</t>
+    <t>Kevel Kevel Kevel</t>
   </si>
 </sst>
 </file>
@@ -429,132 +430,1041 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="32" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
